--- a/data/investment_costs.xlsx
+++ b/data/investment_costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frede\Documents\DTU\2024\MSc 3. semester\Optimization in Modern Power Systems\optimization_46750\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE17B4C8-17AD-4D25-9211-ABCF7601C33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54663A6-E686-487D-A1B5-96BE2B14206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{103AFA9C-0F2E-42D7-81CC-280C0F285936}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Solar</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -240,10 +243,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC8B919-1B45-4812-897A-443D4A9A6FAA}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +679,8 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>13.4</v>
+        <f>13.4*0</f>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -752,7 +757,6 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>B6+B5</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -780,27 +784,47 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f>-PMT($I$2,B3,1)</f>
-        <v>8.8827433387272295E-2</v>
+        <f>-PMT(B9,B3,1)</f>
+        <v>6.5051435080276582E-2</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:F8" si="0">-PMT($I$2,C3,1)</f>
-        <v>8.8827433387272295E-2</v>
+        <f t="shared" ref="C8:F8" si="0">-PMT(C9,C3,1)</f>
+        <v>6.5051435080276582E-2</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>8.8827433387272295E-2</v>
+        <v>6.5051435080276582E-2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>8.8827433387272295E-2</v>
+        <v>6.5051435080276582E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8.386016150058534E-2</v>
+        <v>5.8278161166034993E-2</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/investment_costs.xlsx
+++ b/data/investment_costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frede\Documents\DTU\2024\MSc 3. semester\Optimization in Modern Power Systems\optimization_46750\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54663A6-E686-487D-A1B5-96BE2B14206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A873364-DBD6-457A-BE75-694C84C0A6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{103AFA9C-0F2E-42D7-81CC-280C0F285936}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Solar</t>
   </si>
@@ -177,13 +177,19 @@
     <t>percent</t>
   </si>
   <si>
-    <t>Gas fuel price at 3 $/MMBtu:</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
     <t>Discount rate</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/commodity/eu-natural-gas</t>
+  </si>
+  <si>
+    <t>Average gas price 2024</t>
+  </si>
+  <si>
+    <t>Efficiency of gas unit</t>
   </si>
 </sst>
 </file>
@@ -583,21 +589,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC8B919-1B45-4812-897A-443D4A9A6FAA}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -621,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -648,7 +655,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -671,16 +678,19 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <f>13.4*0</f>
-        <v>0</v>
+        <f>13.4</f>
+        <v>13.4</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -699,14 +709,13 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <f>3/0.293071*0.92</f>
-        <v>9.4175131623394996</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -728,8 +737,11 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -743,7 +755,8 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <f>I4/I6</f>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -751,8 +764,11 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
+      <c r="I6" s="3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -769,17 +785,16 @@
       </c>
       <c r="E7">
         <f>E6+E5</f>
-        <v>15.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="F7">
-        <f>F6+F5</f>
         <v>7.5</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -807,9 +822,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <v>0.05</v>
